--- a/Chi-Square-Practice-2.xlsx
+++ b/Chi-Square-Practice-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yalegenomecenter/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE56E307-DCCA-3348-91F7-4C71040A8BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE25345-EC7C-584D-A001-257B490BC133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{9CC98B6D-B44D-3347-B5A1-E3D1A2818642}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -572,6 +572,42 @@
       <c r="C3" s="8">
         <v>129</v>
       </c>
+      <c r="D3">
+        <f>SUM(B3,C3)</f>
+        <v>136</v>
+      </c>
+      <c r="E3">
+        <f>D3/B7</f>
+        <v>3.4</v>
+      </c>
+      <c r="F3">
+        <f>D3/C7</f>
+        <v>0.3487179487179487</v>
+      </c>
+      <c r="G3">
+        <f>B3-E3</f>
+        <v>3.6</v>
+      </c>
+      <c r="H3">
+        <f>C3-F3</f>
+        <v>128.65128205128204</v>
+      </c>
+      <c r="I3">
+        <f>G3^2</f>
+        <v>12.96</v>
+      </c>
+      <c r="J3">
+        <f>H3^2</f>
+        <v>16551.152373438523</v>
+      </c>
+      <c r="K3">
+        <f>I3/E3</f>
+        <v>3.8117647058823532</v>
+      </c>
+      <c r="L3">
+        <f>J3/F3</f>
+        <v>47462.863423831062</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
@@ -583,6 +619,42 @@
       <c r="C4" s="8">
         <v>46</v>
       </c>
+      <c r="D4">
+        <f>SUM(B4,C4)</f>
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <f>D4/B7</f>
+        <v>1.375</v>
+      </c>
+      <c r="F4">
+        <f>D4/C7</f>
+        <v>0.14102564102564102</v>
+      </c>
+      <c r="G4">
+        <f>B4-E4</f>
+        <v>7.625</v>
+      </c>
+      <c r="H4">
+        <f>C4-F4</f>
+        <v>45.858974358974358</v>
+      </c>
+      <c r="I4">
+        <f>G4^2</f>
+        <v>58.140625</v>
+      </c>
+      <c r="J4">
+        <f>H4^2</f>
+        <v>2103.0455292570678</v>
+      </c>
+      <c r="K4">
+        <f>I4/E4</f>
+        <v>42.284090909090907</v>
+      </c>
+      <c r="L4">
+        <f>J4/F4</f>
+        <v>14912.504662004663</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
@@ -594,33 +666,69 @@
       <c r="C5" s="8">
         <v>215</v>
       </c>
+      <c r="D5">
+        <f>SUM(B5,C5)</f>
+        <v>239</v>
+      </c>
+      <c r="E5">
+        <f>D5/B7</f>
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="F5">
+        <f>D5/C7</f>
+        <v>0.61282051282051286</v>
+      </c>
+      <c r="G5">
+        <f>B5-E5</f>
+        <v>18.024999999999999</v>
+      </c>
+      <c r="H5">
+        <f>C5-F5</f>
+        <v>214.38717948717948</v>
+      </c>
+      <c r="I5">
+        <f>G5^2</f>
+        <v>324.90062499999993</v>
+      </c>
+      <c r="J5">
+        <f>H5^2</f>
+        <v>45961.862728468113</v>
+      </c>
+      <c r="K5">
+        <f>I5/E5</f>
+        <v>54.376673640167354</v>
+      </c>
+      <c r="L5">
+        <f>J5/F5</f>
+        <v>75000.52913850444</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7">
-        <f>SUM(B6:B6)</f>
-        <v>0</v>
+        <f>SUM(B3:B5)</f>
+        <v>40</v>
       </c>
       <c r="C7">
-        <f>SUM(C6:C6)</f>
-        <v>0</v>
+        <f>SUM(C3:C5)</f>
+        <v>390</v>
       </c>
       <c r="J7" t="s">
         <v>1</v>
       </c>
       <c r="K7">
-        <f>SUM(K3:K6)</f>
-        <v>0</v>
+        <f>SUM(K3:K5)</f>
+        <v>100.47252925514061</v>
       </c>
       <c r="L7">
-        <f>SUM(L3:L6)</f>
-        <v>0</v>
+        <f>SUM(L3:L5)</f>
+        <v>137375.89722434018</v>
       </c>
       <c r="M7">
         <f>SUM(K7:L7)</f>
-        <v>0</v>
+        <v>137476.36975359533</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -630,6 +738,9 @@
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D11">
+        <v>137476.37</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -637,6 +748,9 @@
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
